--- a/biology/Zoologie/Bruant_bleu/Bruant_bleu.xlsx
+++ b/biology/Zoologie/Bruant_bleu/Bruant_bleu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emberiza siemsseni
 Le Bruant bleu (Emberiza siemsseni) est une espèce de passereaux de la famille des Emberizidae qui est endémique des montagnes du centre de la Chine.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Emberiza siemsseni a été initialement décrite en 1906 par Gustav Heinrich Martens (d) sous le protonyme de Junco siemsseni[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Emberiza siemsseni a été initialement décrite en 1906 par Gustav Heinrich Martens (d) sous le protonyme de Junco siemsseni.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, siemsseni, lui a été donnée en l'honneur de Georg Theodor Siemssen (d) (1816-1886), marchand et homme politique allemand, alors consul en Chine[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, siemsseni, lui a été donnée en l'honneur de Georg Theodor Siemssen (d) (1816-1886), marchand et homme politique allemand, alors consul en Chine.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) G. H. Martens, « Eine neue Ammerart aus Südost China », Ornithologische Monatsberichte, Berlin, Inconnu, vol. 14,‎ 1906, p. 192-194 (ISSN 0375-0221, OCLC 1761529, lire en ligne)</t>
         </is>
